--- a/기획문서/usecase.xlsx
+++ b/기획문서/usecase.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>카테고리</t>
   </si>
@@ -52,7 +52,7 @@
     <t>센서값 감지 (심박수)</t>
   </si>
   <si>
-    <t>1. 일정 시간마다 심박수를 측정한다.
+    <t>1. 1분마다 심박수를 측정한다.
 2. 기준치를 벗어난 심박수가 감지되면 센서값 저장 usecase로 이동해서 수행한다.</t>
   </si>
   <si>
@@ -78,7 +78,7 @@
   </si>
   <si>
     <t>1. 해당 센서값이 반응한 시점으로부터 이전 5분 , 이후 10분을 부분 저장하여 새로운 녹음파일을 생성한다.
-2. 같은 구간동안의 센서값을 저장한다.
+2. 시점부터 10분동안 변화하는 해당 센서값을 저장한다.
 3. 전송허브와 블루투스 연결을 시도한다.</t>
   </si>
   <si>
@@ -88,22 +88,33 @@
     1. 알림전송(기기-허브) usecase로 이동해서 수행한다.</t>
   </si>
   <si>
-    <t>허브 기기 감지</t>
+    <t>블루투스 페어링</t>
   </si>
   <si>
     <t>전송허브, 기기</t>
   </si>
   <si>
-    <t>1. 주변에 있는 기기의 블루투스 신호를 감지한다.
-2. 블루투스 ID를 기록한다.
-3. 감지된 기기와 연결하여 자신의 블루투스 ID를 전송한다.
-4. 기기는 허브의 블루투스 ID를 기록한다.
-5. 허브는 기록된 기기와 5분마다 연결하여 주변에 있는것을 확인한다.</t>
-  </si>
-  <si>
-    <t>2-a. 이미 있는 ID일 때
-    1. 무시하고 5번을 반복한다.
-5-a. 3회 이상 연결에 실패한다.
+    <t>1. 허브가 주변에 있는 블루투스 기기를 스캔한다.
+2. 감지된 기기 중 처음 보이는 기기에게 페어링 요청을 보낸다.
+3. 기기의 LED에 푸른빛이 깜빡거린다.
+4. 기기의 전원버튼을 짧게 눌러서 페어링을 수락한다.
+5. 허브의 페어링된 기기 목록에 추가된다.</t>
+  </si>
+  <si>
+    <t>4-a. 페어링에 실패했을 때
+    1. 기기의 LED에 붉은빛이 들어온다.
+    2. 허브는 10초간 대기 후 다시 요청을 보낸다.
+4-b. 페어링에 성공했을 때
+    1. 기기의 LED가 꺼지고 정상동작한다.</t>
+  </si>
+  <si>
+    <t>이탈 감지</t>
+  </si>
+  <si>
+    <t>1. 허브는 5분마다 페어링 목록에 있는 기기와 연결하여 주변에 있는것을 확인한다.</t>
+  </si>
+  <si>
+    <t>1-a. 3회 이상 연결에 실패한다.
     1. 장소를 이탈했다고 판단하고 서버로 이탈 알림을 보낸다.</t>
   </si>
   <si>
@@ -158,11 +169,11 @@
     <t>메모리 관리 (기기)</t>
   </si>
   <si>
-    <t>1. 허브로 알림과 파일을 모두 전송하면 파일을 삭제한다.</t>
-  </si>
-  <si>
-    <t>1-a. 허브로 전송을 못해서 메모리가 가득 찼을 때
-    1. 오래된 파일 순서로 지우고 기본녹음 및 센서값 감지 usecase로 이동해서 수행한다.</t>
+    <t>1. 저장공간이 부족해지면 오래된, 공유가 된 파일부터 삭제한다.</t>
+  </si>
+  <si>
+    <t>1-a. 가장 오래된 파일이 공유가 안된 파일일 때
+    1. 기기의 동작을 정지하고 LED에 빨간불이 들어온다.</t>
   </si>
   <si>
     <t>메모리 관리 (허브)</t>
@@ -171,18 +182,14 @@
     <t>전송허브</t>
   </si>
   <si>
-    <t>1. 메모리가 부족하면 서버로 전송한, 오래된 파일 순서로 삭제한다.</t>
-  </si>
-  <si>
-    <t>1-a. 가장 오래된 파일도 서버로 전송하지 않았을 때
-    1. 전송허브 LED에 붉은색으로 표시하고 모든 동작을 정지한다.</t>
+    <t>1. 서버로 전송한 녹음파일은 즉시 삭제한다.</t>
   </si>
   <si>
     <t>전원 (허브)</t>
   </si>
   <si>
-    <t>1. 전원버튼을 꾹 눌러서 전원을 켠다.
-2. 전원버튼을 꾹 눌러서 전원을 끈다.</t>
+    <t>1. 전원버튼을 1초간 꾹 눌러서 전원을 켠다.
+2. 전원버튼을 1초간 꾹 눌러서 전원을 끈다.</t>
   </si>
   <si>
     <t>전원 (기기)</t>
@@ -257,8 +264,9 @@
     <t>녹음파일 전송</t>
   </si>
   <si>
-    <t>1. 서버는 해당 녹음파일을 전송한다.
-2. 알림과 녹음파일을 하나로 묶은 노드를 파일리스트 화면에 추가한다.</t>
+    <t>1. 알림에 대한 녹음파일 다운 요청을 서버로 보낸다.
+2. 서버는 요쳥받은 알림에 대한 녹음파일을 전송한다.
+3. 다운이 완료되면 다운받기 버튼이 사라지고 재생버튼을 조작할 수 있다.</t>
   </si>
   <si>
     <t>1-a. 전송 중 실패했을 때
@@ -286,10 +294,15 @@
     <t>알림 재생</t>
   </si>
   <si>
-    <t>1. 원하는 파일 노드를 터치해서 해당 파일의 재생화면으로 이동한다.
+    <t>1. 원하는 알림 노드를 터치해서 해당 알림의 상세화면으로 이동한다.
 2. 재생버튼을 눌러서 파일을 재생한다.
 3. 10초 전 버튼을 터치해서 10초 전으로 이동한다.
 4. 10초 후 버튼을 터치해서 10초 후로 이동한다.</t>
+  </si>
+  <si>
+    <t>2-a. 녹음파일이 없을 때
+    1. 녹음파일 다운로드 버튼이 오버랩되어 보이고 재생버튼이 비활성화된다.
+    2. 다운로드 버튼을 터치하면 녹음파일 전송 usecase를 추가한다.</t>
   </si>
   <si>
     <t>알림 삭제</t>
@@ -709,7 +722,7 @@
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -774,46 +787,48 @@
     </row>
     <row r="8">
       <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="6"/>
@@ -821,14 +836,12 @@
         <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="E11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="6"/>
@@ -836,27 +849,27 @@
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="6"/>
@@ -864,55 +877,55 @@
         <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="6"/>
@@ -920,55 +933,55 @@
         <v>54</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="E18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="E19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="16"/>
     </row>
     <row r="22">
       <c r="A22" s="6"/>
@@ -976,7 +989,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>67</v>
@@ -989,7 +1002,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>69</v>
@@ -997,22 +1010,32 @@
       <c r="E23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="17"/>
     </row>
     <row r="26">
       <c r="A26" s="18"/>
@@ -5989,10 +6012,15 @@
       <c r="B1020" s="18"/>
       <c r="E1020" s="19"/>
     </row>
+    <row r="1021">
+      <c r="A1021" s="18"/>
+      <c r="B1021" s="18"/>
+      <c r="E1021" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A2:A16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
